--- a/biology/Médecine/Jean-Pierre_Landau_(artiste)/Jean-Pierre_Landau_(artiste).xlsx
+++ b/biology/Médecine/Jean-Pierre_Landau_(artiste)/Jean-Pierre_Landau_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Landau est un artiste-peintre et sculpteur français, psychanalyste, né en 1944 à Lachau (Drôme).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance à Saint-Tropez et à Nice. Il est marqué par le travail de son père, le peintre Zygmunt Landau de l'École de Paris, qui l'encourage à des créations diverses et dont il rencontre très tôt les amis artistes : Kisling, Barta, Allix, Krémègne, Vachon, Achiam… La disparition de son père en 1962 le marque profondément et il ne reviendra à la sculpture puis à la peinture qu'après être devenu psychanalyste, à la suite d'études de médecine et de psychiatrie.
 Cette double approche de psychanalyste et de peintre se ressent dans une palette complexe avec la violence des mots-couleurs, le silence des taches, la musique de la richesse des pigments.
@@ -544,21 +558,23 @@
           <t>Expositions personnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">2000 : « Pastels », Atelier Montparnasse, Paris
 2003 : « Frammenti di passione », Caffè letterario, Milan (Italie)
 2003 : Galleria Babele, Milan (Italie)
 2004 : Librairie Gutenberg, Paris
 2005 : Centre d'Art et de Culture de la rue Broca, Paris
-2005 : « Les mots-couleurs », Salon Œdipe[1], Paris
+2005 : « Les mots-couleurs », Salon Œdipe, Paris
 2006 : La Taverna Degli Artisti, Costa Lambro, Carate Brianza (Italie)
-2006 : La Préface, Colomiers[2]
+2006 : La Préface, Colomiers
 2006 : « Autour du Couple », Atelier de Tatiana Stolpovic, Paris
 2007 : Galerie de l'Autre (Paris)
 2008, 2009 : Exposition éphémère Éidolon / « L'é-lu, l'é-cri, l'é-toile et le temps », Spazio Tadini, Milan, puis la Blanchisserie, Boulogne
-2009 : Exposition « Père &amp; Fils », salon Chopin de la bibliothèque polonaise de Paris[3],
-2010 Exposition « Retour à Lachau, village de justes »[4],[5], Notre-Dame de Calma, Lachau,
+2009 : Exposition « Père &amp; Fils », salon Chopin de la bibliothèque polonaise de Paris,
+2010 Exposition « Retour à Lachau, village de justes » Notre-Dame de Calma, Lachau,
 2010 : Exposition « Landau, père et fils » Institut français de Cracovie (Pologne)
 Il participe par ailleurs à de nombreuses expositions collectives, en France et en Italie.
 </t>
